--- a/AltFit Validation Data CORR ASSUMED Error Corrected July 18.xlsx
+++ b/AltFit Validation Data CORR ASSUMED Error Corrected July 18.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6015231\Documents\GitHub\AltFit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelop\Documents\GitHub\AltFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443E9CC4-8B8C-4CE0-9DCE-A1B7371520DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="725" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="725" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Effect Model" sheetId="12" r:id="rId1"/>
@@ -23,12 +24,12 @@
     <sheet name="Model Comparisons" sheetId="9" r:id="rId9"/>
     <sheet name="MetaData" sheetId="16" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="166">
   <si>
     <t>Altitude</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -547,7 +548,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -704,7 +705,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,12 +885,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1052,14 +1047,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1099,8 +1092,8 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41"/>
-    <cellStyle name="Note 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Note 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -10316,7 +10309,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AltSq &amp; BVOSq Validation'!$G$2:$G$75</c:f>
+              <c:f>'AltSq &amp; BVOSq Validation'!$F$2:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -10982,7 +10975,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AltSq &amp; BVOSq Validation'!$K$2:$K$75</c:f>
+              <c:f>'AltSq &amp; BVOSq Validation'!$H$2:$H$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -11603,7 +11596,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AltSq &amp; BVOSq Validation'!$L$2:$L$75</c:f>
+              <c:f>'AltSq &amp; BVOSq Validation'!$I$2:$I$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -12201,7 +12194,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AltSq &amp; BVOSq Validation'!$K$2:$K$75</c:f>
+              <c:f>'AltSq &amp; BVOSq Validation'!$H$2:$H$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -12825,7 +12818,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AltSq &amp; BVOSq Validation'!$L$2:$L$75</c:f>
+              <c:f>'AltSq &amp; BVOSq Validation'!$I$2:$I$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -13863,7 +13856,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AltSq &amp; BVOSq Validation'!$G$2:$G$75</c:f>
+              <c:f>'AltSq &amp; BVOSq Validation'!$F$2:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -14193,7 +14186,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AltSq &amp; BVOSq Validation'!$K$1</c:f>
+              <c:f>'AltSq &amp; BVOSq Validation'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14221,7 +14214,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AltSq &amp; BVOSq Validation'!$G$2:$G$75</c:f>
+              <c:f>'AltSq &amp; BVOSq Validation'!$F$2:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -14452,7 +14445,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AltSq &amp; BVOSq Validation'!$K$2:$K$75</c:f>
+              <c:f>'AltSq &amp; BVOSq Validation'!$H$2:$H$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -14732,7 +14725,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -25378,16 +25370,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>3174</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>796470</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>112031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>733974</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53524</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>689070</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152856</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25414,16 +25406,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>751115</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>288472</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25450,16 +25442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541564</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>151039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>78921</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25486,16 +25478,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>593273</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>156481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>130630</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25522,16 +25514,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>737507</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>274864</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25558,13 +25550,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -25594,13 +25586,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -26029,7 +26021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr published="0"/>
   <dimension ref="A1:M37"/>
   <sheetViews>
@@ -26800,7 +26792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr published="0"/>
   <dimension ref="A1:X106"/>
   <sheetViews>
@@ -34866,7 +34858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr published="0"/>
   <dimension ref="A1:J81"/>
   <sheetViews>
@@ -37573,7 +37565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr published="0"/>
   <dimension ref="A1:M43"/>
   <sheetViews>
@@ -38472,7 +38464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr published="0"/>
   <dimension ref="A1:J81"/>
   <sheetViews>
@@ -41186,7 +41178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr published="0"/>
   <dimension ref="A1:M37"/>
   <sheetViews>
@@ -41957,7 +41949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr published="0"/>
   <dimension ref="A1:J81"/>
   <sheetViews>
@@ -44679,7 +44671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr published="0"/>
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -45431,24 +45423,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr published="0"/>
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E66" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N1" activeCellId="4" sqref="F1:F1048576 H1:H1048576 J1:J1048576 M1:M1048576 N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="7" max="8" width="17.375" customWidth="1"/>
-    <col min="9" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -45465,34 +45457,19 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>52</v>
       </c>
@@ -45511,43 +45488,23 @@
         <v>-0.87571200000000271</v>
       </c>
       <c r="F2">
-        <f>-7.7328+1.1872*D2+0.294*A2-0.0777*(D2*D2)-0.003*(A2*A2)-0.0283*(A2*D2)</f>
-        <v>-1.6869120000000022</v>
-      </c>
-      <c r="G2">
         <f>E2*5.591</f>
         <v>-4.8961057920000153</v>
       </c>
-      <c r="H2" s="6">
-        <f>F2*5.591</f>
-        <v>-9.4315249920000124</v>
+      <c r="G2">
+        <f>A2+F2</f>
+        <v>47.103894207999986</v>
+      </c>
+      <c r="H2">
+        <f>F2-C2</f>
+        <v>1.3038942079999876</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:J65" si="1">A2+G2</f>
-        <v>47.103894207999986</v>
-      </c>
-      <c r="J2" s="6">
-        <f t="shared" si="1"/>
-        <v>36.368475007999983</v>
-      </c>
-      <c r="K2">
-        <f>G2-C2</f>
-        <v>1.3038942079999876</v>
-      </c>
-      <c r="L2">
-        <f>K2*K2</f>
+        <f>H2*H2</f>
         <v>1.7001401056559149</v>
       </c>
-      <c r="M2" s="6">
-        <f>H2-C2</f>
-        <v>-3.2315249920000095</v>
-      </c>
-      <c r="N2" s="6">
-        <f>M2*M2</f>
-        <v>10.442753773920662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>60.9</v>
       </c>
@@ -45562,47 +45519,27 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="2">-7.7328+1.1872*D3+0.294*A3-0.0777*(D3*D3)-0.0027*(A3*A3)-0.0283*(A3*D3)</f>
+        <f t="shared" ref="E3:E66" si="1">-7.7328+1.1872*D3+0.294*A3-0.0777*(D3*D3)-0.0027*(A3*A3)-0.0283*(A3*D3)</f>
         <v>-1.2253270000000018</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="3">-7.7328+1.1872*D3+0.294*A3-0.0777*(D3*D3)-0.003*(A3*A3)-0.0283*(A3*D3)</f>
-        <v>-2.3379700000000021</v>
+        <f>E3*5.591</f>
+        <v>-6.8508032570000106</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:H66" si="4">E3*5.591</f>
-        <v>-6.8508032570000106</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" si="4"/>
-        <v>-13.071590270000012</v>
+        <f>A3+F3</f>
+        <v>54.049196742999989</v>
+      </c>
+      <c r="H3">
+        <f>F3-C3</f>
+        <v>0.94919674299998658</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
-        <v>54.049196742999989</v>
-      </c>
-      <c r="J3" s="6">
-        <f t="shared" si="1"/>
-        <v>40.028409729999993</v>
-      </c>
-      <c r="K3">
-        <f>G3-C3</f>
-        <v>0.94919674299998658</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L65" si="5">K3*K3</f>
+        <f t="shared" ref="I3:I65" si="2">H3*H3</f>
         <v>0.90097445692178257</v>
       </c>
-      <c r="M3" s="6">
-        <f t="shared" ref="M3:M66" si="6">H3-C3</f>
-        <v>-5.271590270000015</v>
-      </c>
-      <c r="N3" s="6">
-        <f t="shared" ref="N3:N65" si="7">M3*M3</f>
-        <v>27.789663974758831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50.34</v>
       </c>
@@ -45617,47 +45554,27 @@
         <v>4</v>
       </c>
       <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-1.9678401200000017</v>
+      </c>
+      <c r="F4">
+        <f>E4*5.591</f>
+        <v>-11.00219411092001</v>
+      </c>
+      <c r="G4">
+        <f>A4+F4</f>
+        <v>39.337805889079995</v>
+      </c>
+      <c r="H4">
+        <f>F4-C4</f>
+        <v>1.057805889079992</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
-        <v>-1.9678401200000017</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="3"/>
-        <v>-2.7280748000000017</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="4"/>
-        <v>-11.00219411092001</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="4"/>
-        <v>-15.25266620680001</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>39.337805889079995</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" si="1"/>
-        <v>23.027333793199993</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K65" si="8">G4-C4</f>
-        <v>1.057805889079992</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
         <v>1.1189532989723123</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.1926662068000073</v>
-      </c>
-      <c r="N4" s="6">
-        <f t="shared" si="7"/>
-        <v>10.193117508042747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>48.7</v>
       </c>
@@ -45672,47 +45589,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-2.1632790000000002</v>
+      </c>
+      <c r="F5">
+        <f>E5*5.591</f>
+        <v>-12.094892889000002</v>
+      </c>
+      <c r="G5">
+        <f>A5+F5</f>
+        <v>36.605107111000002</v>
+      </c>
+      <c r="H5">
+        <f>F5-C5</f>
+        <v>1.4051071109999977</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>-2.1632790000000002</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>-2.8747860000000003</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
-        <v>-12.094892889000002</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="4"/>
-        <v>-16.072928526000002</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>36.605107111000002</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="1"/>
-        <v>19.127071474000001</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="8"/>
-        <v>1.4051071109999977</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
         <v>1.9743259933827599</v>
       </c>
-      <c r="M5" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.5729285260000019</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="7"/>
-        <v>6.6199611999045427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>36.26</v>
       </c>
@@ -45727,47 +45624,27 @@
         <v>2.19</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-0.64226151000000131</v>
+      </c>
+      <c r="F6">
+        <f>E6*5.591</f>
+        <v>-3.5908841024100076</v>
+      </c>
+      <c r="G6">
+        <f>A6+F6</f>
+        <v>32.66911589758999</v>
+      </c>
+      <c r="H6">
+        <f>F6-C6</f>
+        <v>-3.1608841024100078</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>-0.64226151000000131</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>-1.0366977900000012</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>-3.5908841024100076</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="4"/>
-        <v>-5.7961773438900064</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>32.66911589758999</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="1"/>
-        <v>30.03382265610999</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="8"/>
-        <v>-3.1608841024100078</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
         <v>9.9911883088683204</v>
       </c>
-      <c r="M6" s="6">
-        <f t="shared" si="6"/>
-        <v>-5.3661773438900067</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="7"/>
-        <v>28.795859286078407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30.64</v>
       </c>
@@ -45782,47 +45659,27 @@
         <v>2.66</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-0.95776595999999969</v>
+      </c>
+      <c r="F7">
+        <f>E7*5.591</f>
+        <v>-5.354869482359998</v>
+      </c>
+      <c r="G7">
+        <f>A7+F7</f>
+        <v>25.285130517640003</v>
+      </c>
+      <c r="H7">
+        <f>F7-C7</f>
+        <v>-7.6648694823600003</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>-0.95776595999999969</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>-1.2394088399999994</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>-5.354869482359998</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.9295348244399966</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>25.285130517640003</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="1"/>
-        <v>26.020465175560005</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="8"/>
-        <v>-7.6648694823600003</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
         <v>58.75022418161366</v>
       </c>
-      <c r="M7" s="6">
-        <f t="shared" si="6"/>
-        <v>-9.2395348244399997</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="7"/>
-        <v>85.369003772039491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>58.57</v>
       </c>
@@ -45837,47 +45694,27 @@
         <v>4</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-2.8999452299999993</v>
+      </c>
+      <c r="F8">
+        <f>E8*5.591</f>
+        <v>-16.213593780929997</v>
+      </c>
+      <c r="G8">
+        <f>A8+F8</f>
+        <v>42.356406219070003</v>
+      </c>
+      <c r="H8">
+        <f>F8-C8</f>
+        <v>1.3564062190700028</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>-2.8999452299999993</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>-3.9290786999999989</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>-16.213593780929997</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="4"/>
-        <v>-21.967479011699997</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>42.356406219070003</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="1"/>
-        <v>19.032520988300003</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="8"/>
-        <v>1.3564062190700028</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
         <v>1.8398378311317805</v>
       </c>
-      <c r="M8" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.3974790116999962</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="7"/>
-        <v>19.337821658341976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>51.19</v>
       </c>
@@ -45892,47 +45729,27 @@
         <v>4</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-2.0471714700000003</v>
+      </c>
+      <c r="F9">
+        <f>E9*5.591</f>
+        <v>-11.445735688770002</v>
+      </c>
+      <c r="G9">
+        <f>A9+F9</f>
+        <v>39.744264311229998</v>
+      </c>
+      <c r="H9">
+        <f>F9-C9</f>
+        <v>0.49426431122999581</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>-2.0471714700000003</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>-2.8332962999999998</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>-11.445735688770002</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="4"/>
-        <v>-15.840959613299999</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>39.744264311229998</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="1"/>
-        <v>23.409040386699999</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="8"/>
-        <v>0.49426431122999581</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
         <v>0.24429720935566215</v>
       </c>
-      <c r="M9" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.9009596133000013</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="7"/>
-        <v>15.217485904597696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>61.6</v>
       </c>
@@ -45947,47 +45764,27 @@
         <v>2.4</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-1.6498560000000042</v>
+      </c>
+      <c r="F10">
+        <f>E10*5.591</f>
+        <v>-9.2243448960000247</v>
+      </c>
+      <c r="G10">
+        <f>A10+F10</f>
+        <v>52.375655103999975</v>
+      </c>
+      <c r="H10">
+        <f>F10-C10</f>
+        <v>1.3756551039999767</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>-1.6498560000000042</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>-2.788224000000004</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>-9.2243448960000247</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="4"/>
-        <v>-15.588960384000023</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>52.375655103999975</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="1"/>
-        <v>35.411039615999975</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="8"/>
-        <v>1.3756551039999767</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
         <v>1.8924269651611867</v>
       </c>
-      <c r="M10" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.9889603840000216</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="7"/>
-        <v>24.889725713121642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>53.17</v>
       </c>
@@ -46002,47 +45799,27 @@
         <v>4</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-2.2470960299999998</v>
+      </c>
+      <c r="F11">
+        <f>E11*5.591</f>
+        <v>-12.56351390373</v>
+      </c>
+      <c r="G11">
+        <f>A11+F11</f>
+        <v>40.606486096270004</v>
+      </c>
+      <c r="H11">
+        <f>F11-C11</f>
+        <v>0.36648609627000006</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>-2.2470960299999998</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>-3.0952106999999991</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>-12.56351390373</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="4"/>
-        <v>-17.305323023699994</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>40.606486096270004</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="1"/>
-        <v>22.934676976300008</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="8"/>
-        <v>0.36648609627000006</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
         <v>0.13431205875922375</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.3753230236999947</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="7"/>
-        <v>19.143451561719264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>44.33</v>
       </c>
@@ -46057,47 +45834,27 @@
         <v>2.19</v>
       </c>
       <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-0.52581141000000198</v>
+      </c>
+      <c r="F12">
+        <f>E12*5.591</f>
+        <v>-2.9398115933100111</v>
+      </c>
+      <c r="G12">
+        <f>A12+F12</f>
+        <v>41.390188406689987</v>
+      </c>
+      <c r="H12">
+        <f>F12-C12</f>
+        <v>-1.0398115933100125</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>-0.52581141000000198</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>-1.1153560800000015</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>-2.9398115933100111</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.2359558432800091</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>41.390188406689987</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="1"/>
-        <v>36.19404415671999</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="8"/>
-        <v>-1.0398115933100125</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
         <v>1.0812081495819068</v>
       </c>
-      <c r="M12" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.3359558432800105</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="7"/>
-        <v>18.800513074874068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>43.64</v>
       </c>
@@ -46112,47 +45869,27 @@
         <v>2.66</v>
       </c>
       <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-0.72160796000000138</v>
+      </c>
+      <c r="F13">
+        <f>E13*5.591</f>
+        <v>-4.0345101043600078</v>
+      </c>
+      <c r="G13">
+        <f>A13+F13</f>
+        <v>39.605489895639991</v>
+      </c>
+      <c r="H13">
+        <f>F13-C13</f>
+        <v>-1.2445101043600086</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="2"/>
-        <v>-0.72160796000000138</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>-1.2929428400000007</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>-4.0345101043600078</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="4"/>
-        <v>-7.2288434184400039</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>39.605489895639991</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="1"/>
-        <v>33.621156581560001</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="8"/>
-        <v>-1.2445101043600086</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
         <v>1.5488053998541595</v>
       </c>
-      <c r="M13" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.4388434184400047</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="7"/>
-        <v>19.703330893428149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>46.3</v>
       </c>
@@ -46167,47 +45904,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-1.9544310000000014</v>
+      </c>
+      <c r="F14">
+        <f>E14*5.591</f>
+        <v>-10.927223721000008</v>
+      </c>
+      <c r="G14">
+        <f>A14+F14</f>
+        <v>35.372776278999993</v>
+      </c>
+      <c r="H14">
+        <f>F14-C14</f>
+        <v>1.8727762789999893</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
-        <v>-1.9544310000000014</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>-2.597538000000001</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>-10.927223721000008</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="4"/>
-        <v>-14.522834958000006</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>35.372776278999993</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="1"/>
-        <v>18.977165041999996</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="8"/>
-        <v>1.8727762789999893</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="5"/>
         <v>3.5072909911850458</v>
       </c>
-      <c r="M14" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.7228349580000089</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="7"/>
-        <v>2.9681602925068922</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>66.8</v>
       </c>
@@ -46222,47 +45939,27 @@
         <v>2</v>
       </c>
       <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-1.8589280000000006</v>
+      </c>
+      <c r="F15">
+        <f>E15*5.591</f>
+        <v>-10.393266448000004</v>
+      </c>
+      <c r="G15">
+        <f>A15+F15</f>
+        <v>56.406733551999992</v>
+      </c>
+      <c r="H15">
+        <f>F15-C15</f>
+        <v>-1.6932664480000081</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
-        <v>-1.8589280000000006</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>-3.1976000000000013</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>-10.393266448000004</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="4"/>
-        <v>-17.877781600000009</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>56.406733551999992</v>
-      </c>
-      <c r="J15" s="6">
-        <f t="shared" si="1"/>
-        <v>40.222218399999988</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="8"/>
-        <v>-1.6932664480000081</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
         <v>2.8671512639225645</v>
       </c>
-      <c r="M15" s="6">
-        <f t="shared" si="6"/>
-        <v>-9.1777816000000136</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" si="7"/>
-        <v>84.231675097298805</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
@@ -46277,47 +45974,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-1.5541919999999996</v>
+      </c>
+      <c r="F16">
+        <f>E16*5.591</f>
+        <v>-8.6894874719999979</v>
+      </c>
+      <c r="G16">
+        <f>A16+F16</f>
+        <v>31.310512528000004</v>
+      </c>
+      <c r="H16">
+        <f>F16-C16</f>
+        <v>0.31051252800000206</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>-1.5541919999999996</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>-2.0341919999999991</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>-8.6894874719999979</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="4"/>
-        <v>-11.373167471999995</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>31.310512528000004</v>
-      </c>
-      <c r="J16" s="6">
-        <f t="shared" si="1"/>
-        <v>19.626832528000005</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="8"/>
-        <v>0.31051252800000206</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
         <v>9.6418030044952072E-2</v>
       </c>
-      <c r="M16" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.3731674719999951</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" si="7"/>
-        <v>5.6319238501588478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50.8</v>
       </c>
@@ -46332,47 +46009,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-2.3715360000000016</v>
+      </c>
+      <c r="F17">
+        <f>E17*5.591</f>
+        <v>-13.259257776000009</v>
+      </c>
+      <c r="G17">
+        <f>A17+F17</f>
+        <v>37.540742223999985</v>
+      </c>
+      <c r="H17">
+        <f>F17-C17</f>
+        <v>2.4407422239999867</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
-        <v>-2.3715360000000016</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>-3.145728000000001</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>-13.259257776000009</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="4"/>
-        <v>-17.587765248000007</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>37.540742223999985</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="1"/>
-        <v>17.512234751999994</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="8"/>
-        <v>2.4407422239999867</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
         <v>5.9572226040164011</v>
       </c>
-      <c r="M17" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.8877652480000116</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5636576315565449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>31.7</v>
       </c>
@@ -46387,47 +46044,27 @@
         <v>2.66</v>
       </c>
       <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-0.9043377200000009</v>
+      </c>
+      <c r="F18">
+        <f>E18*5.591</f>
+        <v>-5.0561521925200053</v>
+      </c>
+      <c r="G18">
+        <f>A18+F18</f>
+        <v>26.643847807479993</v>
+      </c>
+      <c r="H18">
+        <f>F18-C18</f>
+        <v>-5.0561521925200053</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
-        <v>-0.9043377200000009</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>-1.2058047200000011</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>-5.0561521925200053</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.7416541895200064</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>26.643847807479993</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="1"/>
-        <v>24.958345810479994</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="8"/>
-        <v>-5.0561521925200053</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
         <v>25.564674993924857</v>
       </c>
-      <c r="M18" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.7416541895200064</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="7"/>
-        <v>45.449901211072657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>56.3</v>
       </c>
@@ -46442,47 +46079,27 @@
         <v>2.4</v>
       </c>
       <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-1.1609309999999993</v>
+      </c>
+      <c r="F19">
+        <f>E19*5.591</f>
+        <v>-6.4907652209999958</v>
+      </c>
+      <c r="G19">
+        <f>A19+F19</f>
+        <v>49.809234779000001</v>
+      </c>
+      <c r="H19">
+        <f>F19-C19</f>
+        <v>0.10923477899999856</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
-        <v>-1.1609309999999993</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>-2.1118380000000001</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>-6.4907652209999958</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="4"/>
-        <v>-11.807286258000001</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>49.809234779000001</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="1"/>
-        <v>37.892713741999998</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="8"/>
-        <v>0.10923477899999856</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
         <v>1.1932236943178527E-2</v>
       </c>
-      <c r="M19" s="6">
-        <f t="shared" si="6"/>
-        <v>-5.207286258000007</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="7"/>
-        <v>27.115830172755714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>37.799999999999997</v>
       </c>
@@ -46497,47 +46114,27 @@
         <v>4.25</v>
       </c>
       <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-1.3817192500000002</v>
+      </c>
+      <c r="F20">
+        <f>E20*5.591</f>
+        <v>-7.7251923267500011</v>
+      </c>
+      <c r="G20">
+        <f>A20+F20</f>
+        <v>30.074807673249996</v>
+      </c>
+      <c r="H20">
+        <f>F20-C20</f>
+        <v>-3.2251923267500011</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
-        <v>-1.3817192500000002</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>-1.8103712500000002</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>-7.7251923267500011</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="4"/>
-        <v>-10.121785658750001</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>30.074807673249996</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="1"/>
-        <v>23.178214341249998</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="8"/>
-        <v>-3.2251923267500011</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
         <v>10.401865544527086</v>
       </c>
-      <c r="M20" s="6">
-        <f t="shared" si="6"/>
-        <v>-5.6217856587500012</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="7"/>
-        <v>31.604473992927186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>53.8</v>
       </c>
@@ -46552,47 +46149,27 @@
         <v>4</v>
       </c>
       <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-2.3151480000000006</v>
+      </c>
+      <c r="F21">
+        <f>E21*5.591</f>
+        <v>-12.943992468000005</v>
+      </c>
+      <c r="G21">
+        <f>A21+F21</f>
+        <v>40.856007531999992</v>
+      </c>
+      <c r="H21">
+        <f>F21-C21</f>
+        <v>2.6860075319999908</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="2"/>
-        <v>-2.3151480000000006</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>-3.1834799999999994</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>-12.943992468000005</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="4"/>
-        <v>-17.798836679999997</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>40.856007531999992</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="1"/>
-        <v>20.371163320000004</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="8"/>
-        <v>2.6860075319999908</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="5"/>
         <v>7.2146364619606818</v>
       </c>
-      <c r="M21" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.1688366800000018</v>
-      </c>
-      <c r="N21" s="6">
-        <f t="shared" si="7"/>
-        <v>4.7038525445134303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50.2</v>
       </c>
@@ -46607,47 +46184,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-2.3096040000000002</v>
+      </c>
+      <c r="F22">
+        <f>E22*5.591</f>
+        <v>-12.912995964000002</v>
+      </c>
+      <c r="G22">
+        <f>A22+F22</f>
+        <v>37.287004035999999</v>
+      </c>
+      <c r="H22">
+        <f>F22-C22</f>
+        <v>2.7870040360000008</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
-        <v>-2.3096040000000002</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>-3.0656160000000003</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>-12.912995964000002</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="4"/>
-        <v>-17.139859056000002</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>37.287004035999999</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="1"/>
-        <v>17.360140943999998</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="8"/>
-        <v>2.7870040360000008</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="5"/>
         <v>7.7673914966802942</v>
       </c>
-      <c r="M22" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.4398590559999995</v>
-      </c>
-      <c r="N22" s="6">
-        <f t="shared" si="7"/>
-        <v>2.07319410114521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>55.2</v>
       </c>
@@ -46662,47 +46219,27 @@
         <v>2.66</v>
       </c>
       <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-1.2781757200000019</v>
+      </c>
+      <c r="F23">
+        <f>E23*5.591</f>
+        <v>-7.1462804505200106</v>
+      </c>
+      <c r="G23">
+        <f>A23+F23</f>
+        <v>48.053719549479993</v>
+      </c>
+      <c r="H23">
+        <f>F23-C23</f>
+        <v>-0.24628045052000491</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
-        <v>-1.2781757200000019</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>-2.1922877200000013</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>-7.1462804505200106</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="4"/>
-        <v>-12.257080642520007</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>48.053719549479993</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="1"/>
-        <v>36.042919357479988</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="8"/>
-        <v>-0.24628045052000491</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="5"/>
         <v>6.0654060308336588E-2</v>
       </c>
-      <c r="M23" s="6">
-        <f t="shared" si="6"/>
-        <v>-5.3570806425200015</v>
-      </c>
-      <c r="N23" s="6">
-        <f t="shared" si="7"/>
-        <v>28.698313010462513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>45.4</v>
       </c>
@@ -46717,47 +46254,27 @@
         <v>2.66</v>
       </c>
       <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-0.75977532000000148</v>
+      </c>
+      <c r="F24">
+        <f>E24*5.591</f>
+        <v>-4.2479038141200087</v>
+      </c>
+      <c r="G24">
+        <f>A24+F24</f>
+        <v>41.152096185879991</v>
+      </c>
+      <c r="H24">
+        <f>F24-C24</f>
+        <v>1.7520961858799913</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="2"/>
-        <v>-0.75977532000000148</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>-1.3781233200000007</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>-4.2479038141200087</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="4"/>
-        <v>-7.7050874821200042</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>41.152096185879991</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="1"/>
-        <v>31.694912517879995</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="8"/>
-        <v>1.7520961858799913</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
         <v>3.0698410445752131</v>
       </c>
-      <c r="M24" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.7050874821200042</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" si="7"/>
-        <v>2.9073233216823353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>34.200000000000003</v>
       </c>
@@ -46772,47 +46289,27 @@
         <v>2.66</v>
       </c>
       <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-0.80235771999999983</v>
+      </c>
+      <c r="F25">
+        <f>E25*5.591</f>
+        <v>-4.4859820125199992</v>
+      </c>
+      <c r="G25">
+        <f>A25+F25</f>
+        <v>29.714017987480005</v>
+      </c>
+      <c r="H25">
+        <f>F25-C25</f>
+        <v>-2.9859820125199992</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="2"/>
-        <v>-0.80235771999999983</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>-1.1532497199999998</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>-4.4859820125199992</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.4478191845199992</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>29.714017987480005</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="1"/>
-        <v>26.252180815480003</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="8"/>
-        <v>-2.9859820125199992</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="5"/>
         <v>8.9160885790929854</v>
       </c>
-      <c r="M25" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.9478191845199992</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" si="7"/>
-        <v>24.480914682704149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>47.1</v>
       </c>
@@ -46827,47 +46324,27 @@
         <v>4.25</v>
       </c>
       <c r="E26">
+        <f t="shared" si="1"/>
+        <v>-1.897915750000001</v>
+      </c>
+      <c r="F26">
+        <f>E26*5.591</f>
+        <v>-10.611246958250007</v>
+      </c>
+      <c r="G26">
+        <f>A26+F26</f>
+        <v>36.488753041749995</v>
+      </c>
+      <c r="H26">
+        <f>F26-C26</f>
+        <v>-0.81124695825000259</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="2"/>
-        <v>-1.897915750000001</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>-2.5634387500000013</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>-10.611246958250007</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="4"/>
-        <v>-14.332186051250007</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>36.488753041749995</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="1"/>
-        <v>22.967813948749992</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="8"/>
-        <v>-0.81124695825000259</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="5"/>
         <v>0.65812162726988144</v>
       </c>
-      <c r="M26" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.5321860512500027</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="7"/>
-        <v>20.540710403145091</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>44.7</v>
       </c>
@@ -46882,47 +46359,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E27">
+        <f t="shared" si="1"/>
+        <v>-1.8324790000000011</v>
+      </c>
+      <c r="F27">
+        <f>E27*5.591</f>
+        <v>-10.245390089000006</v>
+      </c>
+      <c r="G27">
+        <f>A27+F27</f>
+        <v>34.454609910999999</v>
+      </c>
+      <c r="H27">
+        <f>F27-C27</f>
+        <v>-1.245390089000006</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="2"/>
-        <v>-1.8324790000000011</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>-2.4319060000000006</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>-10.245390089000006</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="4"/>
-        <v>-13.596786446000003</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>34.454609910999999</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="1"/>
-        <v>22.103213554</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="8"/>
-        <v>-1.245390089000006</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
         <v>1.5509964737794428</v>
       </c>
-      <c r="M27" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.596786446000003</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="7"/>
-        <v>21.130445630129337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>39.1</v>
       </c>
@@ -46937,47 +46394,27 @@
         <v>2.66</v>
       </c>
       <c r="E28">
+        <f t="shared" si="1"/>
+        <v>-0.70037892000000035</v>
+      </c>
+      <c r="F28">
+        <f>E28*5.591</f>
+        <v>-3.915818541720002</v>
+      </c>
+      <c r="G28">
+        <f>A28+F28</f>
+        <v>35.184181458280001</v>
+      </c>
+      <c r="H28">
+        <f>F28-C28</f>
+        <v>-3.915818541720002</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="2"/>
-        <v>-0.70037892000000035</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>-1.1590219200000007</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>-3.915818541720002</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.480091554720004</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>35.184181458280001</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="1"/>
-        <v>32.619908445279997</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="8"/>
-        <v>-3.915818541720002</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
         <v>15.333634851678163</v>
       </c>
-      <c r="M28" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.480091554720004</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" si="7"/>
-        <v>41.991586557553518</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>46.2</v>
       </c>
@@ -46992,47 +46429,27 @@
         <v>2.66</v>
       </c>
       <c r="E29">
+        <f t="shared" si="1"/>
+        <v>-0.78265371999999989</v>
+      </c>
+      <c r="F29">
+        <f>E29*5.591</f>
+        <v>-4.3758169485199998</v>
+      </c>
+      <c r="G29">
+        <f>A29+F29</f>
+        <v>41.824183051480006</v>
+      </c>
+      <c r="H29">
+        <f>F29-C29</f>
+        <v>2.314183051480005</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="2"/>
-        <v>-0.78265371999999989</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="3"/>
-        <v>-1.4229857199999989</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>-4.3758169485199998</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="4"/>
-        <v>-7.9559131605199944</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>41.824183051480006</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="1"/>
-        <v>31.554086839480004</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="8"/>
-        <v>2.314183051480005</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
         <v>5.3554431957573074</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.2659131605199896</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="7"/>
-        <v>1.602536129977709</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>37.9</v>
       </c>
@@ -47047,47 +46464,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E30">
+        <f t="shared" si="1"/>
+        <v>-1.4684070000000005</v>
+      </c>
+      <c r="F30">
+        <f>E30*5.591</f>
+        <v>-8.2098635370000022</v>
+      </c>
+      <c r="G30">
+        <f>A30+F30</f>
+        <v>29.690136462999995</v>
+      </c>
+      <c r="H30">
+        <f>F30-C30</f>
+        <v>0.39013646299999571</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="2"/>
-        <v>-1.4684070000000005</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
-        <v>-1.89933</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>-8.2098635370000022</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="4"/>
-        <v>-10.619154030000001</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>29.690136462999995</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" si="1"/>
-        <v>18.68084597</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="8"/>
-        <v>0.39013646299999571</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
         <v>0.15220645976214703</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.0191540300000028</v>
-      </c>
-      <c r="N30" s="6">
-        <f t="shared" si="7"/>
-        <v>4.0769829968652527</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>58.07</v>
       </c>
@@ -47102,47 +46499,27 @@
         <v>4</v>
       </c>
       <c r="E31">
+        <f t="shared" si="1"/>
+        <v>-2.8328812300000026</v>
+      </c>
+      <c r="F31">
+        <f>E31*5.591</f>
+        <v>-15.838638956930016</v>
+      </c>
+      <c r="G31">
+        <f>A31+F31</f>
+        <v>42.231361043069981</v>
+      </c>
+      <c r="H31">
+        <f>F31-C31</f>
+        <v>2.7613610430699858</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>-2.8328812300000026</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>-3.8445187000000027</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>-15.838638956930016</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="4"/>
-        <v>-21.494704051700015</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>42.231361043069981</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" si="1"/>
-        <v>17.975295948299983</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="8"/>
-        <v>2.7613610430699858</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
         <v>7.6251148101845594</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.894704051700014</v>
-      </c>
-      <c r="N31" s="6">
-        <f t="shared" si="7"/>
-        <v>8.3793115469284771</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>47.8</v>
       </c>
@@ -47157,47 +46534,27 @@
         <v>4.25</v>
       </c>
       <c r="E32">
+        <f t="shared" si="1"/>
+        <v>-1.9556692499999988</v>
+      </c>
+      <c r="F32">
+        <f>E32*5.591</f>
+        <v>-10.934146776749994</v>
+      </c>
+      <c r="G32">
+        <f>A32+F32</f>
+        <v>36.865853223249999</v>
+      </c>
+      <c r="H32">
+        <f>F32-C32</f>
+        <v>-1.0341467767499957</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
-        <v>-1.9556692499999988</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>-2.6411212499999985</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>-10.934146776749994</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" si="4"/>
-        <v>-14.766508908749993</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>36.865853223249999</v>
-      </c>
-      <c r="J32" s="6">
-        <f t="shared" si="1"/>
-        <v>23.133491091250008</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="8"/>
-        <v>-1.0341467767499957</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
         <v>1.0694595558624054</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.866508908749994</v>
-      </c>
-      <c r="N32" s="6">
-        <f t="shared" si="7"/>
-        <v>23.682908958943056</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>36.6</v>
       </c>
@@ -47212,47 +46569,27 @@
         <v>4.25</v>
       </c>
       <c r="E33">
+        <f t="shared" si="1"/>
+        <v>-1.3491332500000008</v>
+      </c>
+      <c r="F33">
+        <f>E33*5.591</f>
+        <v>-7.5430040007500052</v>
+      </c>
+      <c r="G33">
+        <f>A33+F33</f>
+        <v>29.056995999249995</v>
+      </c>
+      <c r="H33">
+        <f>F33-C33</f>
+        <v>-0.2430040007500045</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>-1.3491332500000008</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
-        <v>-1.7510012500000007</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
-        <v>-7.5430040007500052</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="4"/>
-        <v>-9.7898479887500045</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>29.056995999249995</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="1"/>
-        <v>19.510152011249996</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="8"/>
-        <v>-0.2430040007500045</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
         <v>5.9050944380508189E-2</v>
       </c>
-      <c r="M33" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.4898479887500038</v>
-      </c>
-      <c r="N33" s="6">
-        <f t="shared" si="7"/>
-        <v>6.1993430070824393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>56.63</v>
       </c>
@@ -47267,47 +46604,27 @@
         <v>4</v>
       </c>
       <c r="E34">
+        <f t="shared" si="1"/>
+        <v>-2.6472796300000008</v>
+      </c>
+      <c r="F34">
+        <f>E34*5.591</f>
+        <v>-14.800940411330005</v>
+      </c>
+      <c r="G34">
+        <f>A34+F34</f>
+        <v>41.829059588669999</v>
+      </c>
+      <c r="H34">
+        <f>F34-C34</f>
+        <v>-1.1809404113300008</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
-        <v>-2.6472796300000008</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="3"/>
-        <v>-3.6093667000000016</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="4"/>
-        <v>-14.800940411330005</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" si="4"/>
-        <v>-20.179969219700009</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>41.829059588669999</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="1"/>
-        <v>22.830030780299989</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="8"/>
-        <v>-1.1809404113300008</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
         <v>1.3946202551122715</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.5599692197000046</v>
-      </c>
-      <c r="N34" s="6">
-        <f t="shared" si="7"/>
-        <v>43.033196163411489</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>46.2</v>
       </c>
@@ -47322,47 +46639,27 @@
         <v>2.66</v>
       </c>
       <c r="E35">
+        <f t="shared" si="1"/>
+        <v>-0.78265371999999989</v>
+      </c>
+      <c r="F35">
+        <f>E35*5.591</f>
+        <v>-4.3758169485199998</v>
+      </c>
+      <c r="G35">
+        <f>A35+F35</f>
+        <v>41.824183051480006</v>
+      </c>
+      <c r="H35">
+        <f>F35-C35</f>
+        <v>2.6241830514800002</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="2"/>
-        <v>-0.78265371999999989</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
-        <v>-1.4229857199999989</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="4"/>
-        <v>-4.3758169485199998</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="4"/>
-        <v>-7.9559131605199944</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>41.824183051480006</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="1"/>
-        <v>31.244086839480008</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="8"/>
-        <v>2.6241830514800002</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="5"/>
         <v>6.886336687674885</v>
       </c>
-      <c r="M35" s="6">
-        <f t="shared" si="6"/>
-        <v>-0.95591316051999442</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" si="7"/>
-        <v>0.9137699704553246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>56</v>
       </c>
@@ -47377,47 +46674,27 @@
         <v>2.4</v>
       </c>
       <c r="E36">
+        <f t="shared" si="1"/>
+        <v>-1.1377920000000019</v>
+      </c>
+      <c r="F36">
+        <f>E36*5.591</f>
+        <v>-6.3613950720000112</v>
+      </c>
+      <c r="G36">
+        <f>A36+F36</f>
+        <v>49.638604927999992</v>
+      </c>
+      <c r="H36">
+        <f>F36-C36</f>
+        <v>3.6386049279999888</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="2"/>
-        <v>-1.1377920000000019</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>-2.0785920000000013</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="4"/>
-        <v>-6.3613950720000112</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" si="4"/>
-        <v>-11.621407872000008</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
-        <v>49.638604927999992</v>
-      </c>
-      <c r="J36" s="6">
-        <f t="shared" si="1"/>
-        <v>34.378592127999994</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="8"/>
-        <v>3.6386049279999888</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="5"/>
         <v>13.239445822065804</v>
       </c>
-      <c r="M36" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.6214078720000078</v>
-      </c>
-      <c r="N36" s="6">
-        <f t="shared" si="7"/>
-        <v>2.6289634873835936</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>56.6</v>
       </c>
@@ -47432,47 +46709,27 @@
         <v>2</v>
       </c>
       <c r="E37">
+        <f t="shared" si="1"/>
+        <v>-0.88197200000000153</v>
+      </c>
+      <c r="F37">
+        <f>E37*5.591</f>
+        <v>-4.9311054520000086</v>
+      </c>
+      <c r="G37">
+        <f>A37+F37</f>
+        <v>51.66889454799999</v>
+      </c>
+      <c r="H37">
+        <f>F37-C37</f>
+        <v>-0.83110545200000718</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
-        <v>-0.88197200000000153</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>-1.8430400000000007</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="4"/>
-        <v>-4.9311054520000086</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" si="4"/>
-        <v>-10.304436640000004</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
-        <v>51.66889454799999</v>
-      </c>
-      <c r="J37" s="6">
-        <f t="shared" si="1"/>
-        <v>42.195563359999994</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="8"/>
-        <v>-0.83110545200000718</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="5"/>
         <v>0.69073627234413626</v>
       </c>
-      <c r="M37" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.2044366400000026</v>
-      </c>
-      <c r="N37" s="6">
-        <f t="shared" si="7"/>
-        <v>38.495034019774522</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>48.61</v>
       </c>
@@ -47487,47 +46744,27 @@
         <v>2.66</v>
       </c>
       <c r="E38">
+        <f t="shared" si="1"/>
+        <v>-0.87246237000000182</v>
+      </c>
+      <c r="F38">
+        <f>E38*5.591</f>
+        <v>-4.8779371106700102</v>
+      </c>
+      <c r="G38">
+        <f>A38+F38</f>
+        <v>43.732062889329988</v>
+      </c>
+      <c r="H38">
+        <f>F38-C38</f>
+        <v>-1.5079371106700128</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="2"/>
-        <v>-0.87246237000000182</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>-1.581342000000002</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="4"/>
-        <v>-4.8779371106700102</v>
-      </c>
-      <c r="H38" s="6">
-        <f t="shared" si="4"/>
-        <v>-8.8412831220000108</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
-        <v>43.732062889329988</v>
-      </c>
-      <c r="J38" s="6">
-        <f t="shared" si="1"/>
-        <v>36.398716877999988</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="8"/>
-        <v>-1.5079371106700128</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="5"/>
         <v>2.2738743297358264</v>
       </c>
-      <c r="M38" s="6">
-        <f t="shared" si="6"/>
-        <v>-5.4712831220000133</v>
-      </c>
-      <c r="N38" s="6">
-        <f t="shared" si="7"/>
-        <v>29.934939001082213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>26.97</v>
       </c>
@@ -47542,47 +46779,27 @@
         <v>2.19</v>
       </c>
       <c r="E39">
+        <f t="shared" si="1"/>
+        <v>-1.2117570900000012</v>
+      </c>
+      <c r="F39">
+        <f>E39*5.591</f>
+        <v>-6.7749338901900069</v>
+      </c>
+      <c r="G39">
+        <f>A39+F39</f>
+        <v>20.195066109809993</v>
+      </c>
+      <c r="H39">
+        <f>F39-C39</f>
+        <v>-7.6649338901900075</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="2"/>
-        <v>-1.2117570900000012</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>-1.429971360000001</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
-        <v>-6.7749338901900069</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" si="4"/>
-        <v>-7.9949698737600059</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
-        <v>20.195066109809993</v>
-      </c>
-      <c r="J39" s="6">
-        <f t="shared" si="1"/>
-        <v>19.865030126239994</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="8"/>
-        <v>-7.6649338901900075</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="5"/>
         <v>58.75121154098332</v>
       </c>
-      <c r="M39" s="6">
-        <f t="shared" si="6"/>
-        <v>-8.8849698737600065</v>
-      </c>
-      <c r="N39" s="6">
-        <f t="shared" si="7"/>
-        <v>78.942689657622907</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>50</v>
       </c>
@@ -47597,47 +46814,27 @@
         <v>4</v>
       </c>
       <c r="E40">
+        <f t="shared" si="1"/>
+        <v>-1.9372000000000007</v>
+      </c>
+      <c r="F40">
+        <f>E40*5.591</f>
+        <v>-10.830885200000004</v>
+      </c>
+      <c r="G40">
+        <f>A40+F40</f>
+        <v>39.169114799999996</v>
+      </c>
+      <c r="H40">
+        <f>F40-C40</f>
+        <v>-1.3708852000000036</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="2"/>
-        <v>-1.9372000000000007</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
-        <v>-2.6872000000000007</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="4"/>
-        <v>-10.830885200000004</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="4"/>
-        <v>-15.024135200000005</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
-        <v>39.169114799999996</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" si="1"/>
-        <v>25.515864799999996</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="8"/>
-        <v>-1.3708852000000036</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="5"/>
         <v>1.8793262315790498</v>
       </c>
-      <c r="M40" s="6">
-        <f t="shared" si="6"/>
-        <v>-5.5641352000000044</v>
-      </c>
-      <c r="N40" s="6">
-        <f t="shared" si="7"/>
-        <v>30.959600523879089</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40.799999999999997</v>
       </c>
@@ -47652,47 +46849,27 @@
         <v>2.66</v>
       </c>
       <c r="E41">
+        <f t="shared" si="1"/>
+        <v>-0.69529252000000064</v>
+      </c>
+      <c r="F41">
+        <f>E41*5.591</f>
+        <v>-3.8873804793200035</v>
+      </c>
+      <c r="G41">
+        <f>A41+F41</f>
+        <v>36.912619520679996</v>
+      </c>
+      <c r="H41">
+        <f>F41-C41</f>
+        <v>-3.8873804793200035</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="2"/>
-        <v>-0.69529252000000064</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>-1.1946845200000009</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="4"/>
-        <v>-3.8873804793200035</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.6794811513200054</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
-        <v>36.912619520679996</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="1"/>
-        <v>34.120518848679993</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="8"/>
-        <v>-3.8873804793200035</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="5"/>
         <v>15.111726990998219</v>
       </c>
-      <c r="M41" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.6794811513200054</v>
-      </c>
-      <c r="N41" s="6">
-        <f t="shared" si="7"/>
-        <v>44.615468450839224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40.799999999999997</v>
       </c>
@@ -47707,47 +46884,27 @@
         <v>2.66</v>
       </c>
       <c r="E42">
+        <f t="shared" si="1"/>
+        <v>-0.69529252000000064</v>
+      </c>
+      <c r="F42">
+        <f>E42*5.591</f>
+        <v>-3.8873804793200035</v>
+      </c>
+      <c r="G42">
+        <f>A42+F42</f>
+        <v>36.912619520679996</v>
+      </c>
+      <c r="H42">
+        <f>F42-C42</f>
+        <v>-3.8873804793200035</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
-        <v>-0.69529252000000064</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>-1.1946845200000009</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="4"/>
-        <v>-3.8873804793200035</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.6794811513200054</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>36.912619520679996</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" si="1"/>
-        <v>34.120518848679993</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="8"/>
-        <v>-3.8873804793200035</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="5"/>
         <v>15.111726990998219</v>
       </c>
-      <c r="M42" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.6794811513200054</v>
-      </c>
-      <c r="N42" s="6">
-        <f t="shared" si="7"/>
-        <v>44.615468450839224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>54.6</v>
       </c>
@@ -47762,47 +46919,27 @@
         <v>2.4</v>
       </c>
       <c r="E43">
+        <f t="shared" si="1"/>
+        <v>-1.0362360000000037</v>
+      </c>
+      <c r="F43">
+        <f>E43*5.591</f>
+        <v>-5.7935954760000206</v>
+      </c>
+      <c r="G43">
+        <f>A43+F43</f>
+        <v>48.80640452399998</v>
+      </c>
+      <c r="H43">
+        <f>F43-C43</f>
+        <v>-1.1935954760000191</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="2"/>
-        <v>-1.0362360000000037</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>-1.9305840000000027</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="4"/>
-        <v>-5.7935954760000206</v>
-      </c>
-      <c r="H43" s="6">
-        <f t="shared" si="4"/>
-        <v>-10.793895144000016</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
-        <v>48.80640452399998</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" si="1"/>
-        <v>39.206104855999982</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="8"/>
-        <v>-1.1935954760000191</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="5"/>
         <v>1.4246701603277123</v>
       </c>
-      <c r="M43" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.193895144000015</v>
-      </c>
-      <c r="N43" s="6">
-        <f t="shared" si="7"/>
-        <v>38.364337054866965</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>56.7</v>
       </c>
@@ -47817,47 +46954,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E44">
+        <f t="shared" si="1"/>
+        <v>-3.0840790000000027</v>
+      </c>
+      <c r="F44">
+        <f>E44*5.591</f>
+        <v>-17.243085689000015</v>
+      </c>
+      <c r="G44">
+        <f>A44+F44</f>
+        <v>39.456914310999991</v>
+      </c>
+      <c r="H44">
+        <f>F44-C44</f>
+        <v>3.6569143109999906</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="2"/>
-        <v>-3.0840790000000027</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
-        <v>-4.0485460000000035</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="4"/>
-        <v>-17.243085689000015</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" si="4"/>
-        <v>-22.635420686000021</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
-        <v>39.456914310999991</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" si="1"/>
-        <v>13.164579313999976</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="8"/>
-        <v>3.6569143109999906</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="5"/>
         <v>13.373022277996537</v>
       </c>
-      <c r="M44" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.7354206860000154</v>
-      </c>
-      <c r="N44" s="6">
-        <f t="shared" si="7"/>
-        <v>3.0116849573967643</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>50</v>
       </c>
@@ -47872,47 +46989,27 @@
         <v>2.66</v>
       </c>
       <c r="E45">
+        <f t="shared" si="1"/>
+        <v>-0.93852212000000046</v>
+      </c>
+      <c r="F45">
+        <f>E45*5.591</f>
+        <v>-5.2472771729200032</v>
+      </c>
+      <c r="G45">
+        <f>A45+F45</f>
+        <v>44.752722827079999</v>
+      </c>
+      <c r="H45">
+        <f>F45-C45</f>
+        <v>-1.7472771729200032</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="2"/>
-        <v>-0.93852212000000046</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="3"/>
-        <v>-1.6885221200000005</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="4"/>
-        <v>-5.2472771729200032</v>
-      </c>
-      <c r="H45" s="6">
-        <f t="shared" si="4"/>
-        <v>-9.4405271729200031</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
-        <v>44.752722827079999</v>
-      </c>
-      <c r="J45" s="6">
-        <f t="shared" si="1"/>
-        <v>37.05947282708</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="8"/>
-        <v>-1.7472771729200032</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="5"/>
         <v>3.0529775190073187</v>
       </c>
-      <c r="M45" s="6">
-        <f t="shared" si="6"/>
-        <v>-5.9405271729200031</v>
-      </c>
-      <c r="N45" s="6">
-        <f t="shared" si="7"/>
-        <v>35.289863092200925</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46.09</v>
       </c>
@@ -47927,47 +47024,27 @@
         <v>4</v>
       </c>
       <c r="E46">
+        <f t="shared" si="1"/>
+        <v>-1.6297058700000004</v>
+      </c>
+      <c r="F46">
+        <f>E46*5.591</f>
+        <v>-9.1116855191700026</v>
+      </c>
+      <c r="G46">
+        <f>A46+F46</f>
+        <v>36.978314480830001</v>
+      </c>
+      <c r="H46">
+        <f>F46-C46</f>
+        <v>3.6483144808300025</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="2"/>
-        <v>-1.6297058700000004</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
-        <v>-2.2669923000000001</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="4"/>
-        <v>-9.1116855191700026</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="4"/>
-        <v>-12.674753949300001</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
-        <v>36.978314480830001</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" si="1"/>
-        <v>20.655246050699997</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="8"/>
-        <v>3.6483144808300025</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="5"/>
         <v>13.31019855103389</v>
       </c>
-      <c r="M46" s="6">
-        <f t="shared" si="6"/>
-        <v>8.5246050700003906E-2</v>
-      </c>
-      <c r="N46" s="6">
-        <f t="shared" si="7"/>
-        <v>7.2668891599476362E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43.32</v>
       </c>
@@ -47982,47 +47059,27 @@
         <v>2.66</v>
       </c>
       <c r="E47">
+        <f t="shared" si="1"/>
+        <v>-0.71646556000000006</v>
+      </c>
+      <c r="F47">
+        <f>E47*5.591</f>
+        <v>-4.0057589459600003</v>
+      </c>
+      <c r="G47">
+        <f>A47+F47</f>
+        <v>39.314241054039996</v>
+      </c>
+      <c r="H47">
+        <f>F47-C47</f>
+        <v>-3.4657589459600011</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="2"/>
-        <v>-0.71646556000000006</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="3"/>
-        <v>-1.2794522799999997</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="4"/>
-        <v>-4.0057589459600003</v>
-      </c>
-      <c r="H47" s="6">
-        <f t="shared" si="4"/>
-        <v>-7.1534176974799983</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
-        <v>39.314241054039996</v>
-      </c>
-      <c r="J47" s="6">
-        <f t="shared" si="1"/>
-        <v>35.626582302520006</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="8"/>
-        <v>-3.4657589459600011</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="5"/>
         <v>12.011485071501777</v>
       </c>
-      <c r="M47" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.6134176974799992</v>
-      </c>
-      <c r="N47" s="6">
-        <f t="shared" si="7"/>
-        <v>43.737293641341651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>41.9</v>
       </c>
@@ -48037,47 +47094,27 @@
         <v>4.25</v>
       </c>
       <c r="E48">
+        <f t="shared" si="1"/>
+        <v>-1.5517257500000001</v>
+      </c>
+      <c r="F48">
+        <f>E48*5.591</f>
+        <v>-8.6756986682500017</v>
+      </c>
+      <c r="G48">
+        <f>A48+F48</f>
+        <v>33.224301331749999</v>
+      </c>
+      <c r="H48">
+        <f>F48-C48</f>
+        <v>2.9243013317499962</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="2"/>
-        <v>-1.5517257500000001</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
-        <v>-2.0784087499999995</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="4"/>
-        <v>-8.6756986682500017</v>
-      </c>
-      <c r="H48" s="6">
-        <f t="shared" si="4"/>
-        <v>-11.620383321249998</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
-        <v>33.224301331749999</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" si="1"/>
-        <v>18.679616678750001</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="8"/>
-        <v>2.9243013317499962</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="5"/>
         <v>8.5515382788748013</v>
       </c>
-      <c r="M48" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.0383321249999753E-2</v>
-      </c>
-      <c r="N48" s="6">
-        <f t="shared" si="7"/>
-        <v>4.1547978518069147E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>51</v>
       </c>
@@ -48092,47 +47129,27 @@
         <v>2.66</v>
       </c>
       <c r="E49">
+        <f t="shared" si="1"/>
+        <v>-0.99250011999999987</v>
+      </c>
+      <c r="F49">
+        <f>E49*5.591</f>
+        <v>-5.5490681709199992</v>
+      </c>
+      <c r="G49">
+        <f>A49+F49</f>
+        <v>45.450931829079998</v>
+      </c>
+      <c r="H49">
+        <f>F49-C49</f>
+        <v>-2.0490681709199992</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="2"/>
-        <v>-0.99250011999999987</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="3"/>
-        <v>-1.7728001199999994</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="4"/>
-        <v>-5.5490681709199992</v>
-      </c>
-      <c r="H49" s="6">
-        <f t="shared" si="4"/>
-        <v>-9.9117254709199969</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
-        <v>45.450931829079998</v>
-      </c>
-      <c r="J49" s="6">
-        <f t="shared" si="1"/>
-        <v>37.588274529080003</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="8"/>
-        <v>-2.0490681709199992</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="5"/>
         <v>4.1986803690774313</v>
       </c>
-      <c r="M49" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.4117254709199969</v>
-      </c>
-      <c r="N49" s="6">
-        <f t="shared" si="7"/>
-        <v>41.110223514444257</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48.1</v>
       </c>
@@ -48147,47 +47164,27 @@
         <v>4</v>
       </c>
       <c r="E50">
+        <f t="shared" si="1"/>
+        <v>-1.7774670000000015</v>
+      </c>
+      <c r="F50">
+        <f>E50*5.591</f>
+        <v>-9.9378179970000087</v>
+      </c>
+      <c r="G50">
+        <f>A50+F50</f>
+        <v>38.162182002999991</v>
+      </c>
+      <c r="H50">
+        <f>F50-C50</f>
+        <v>-2.3478179970000053</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="2"/>
-        <v>-1.7774670000000015</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="3"/>
-        <v>-2.4715500000000015</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="4"/>
-        <v>-9.9378179970000087</v>
-      </c>
-      <c r="H50" s="6">
-        <f t="shared" si="4"/>
-        <v>-13.818436050000008</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>38.162182002999991</v>
-      </c>
-      <c r="J50" s="6">
-        <f t="shared" si="1"/>
-        <v>26.691563949999988</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="8"/>
-        <v>-2.3478179970000053</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="5"/>
         <v>5.512249347037117</v>
       </c>
-      <c r="M50" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.2284360500000044</v>
-      </c>
-      <c r="N50" s="6">
-        <f t="shared" si="7"/>
-        <v>38.793415628939655</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>31.3</v>
       </c>
@@ -48202,47 +47199,27 @@
         <v>2.66</v>
       </c>
       <c r="E51">
+        <f t="shared" si="1"/>
+        <v>-0.92378652000000061</v>
+      </c>
+      <c r="F51">
+        <f>E51*5.591</f>
+        <v>-5.1648904333200036</v>
+      </c>
+      <c r="G51">
+        <f>A51+F51</f>
+        <v>26.135109566679997</v>
+      </c>
+      <c r="H51">
+        <f>F51-C51</f>
+        <v>-3.0648904333200022</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="2"/>
-        <v>-0.92378652000000061</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="3"/>
-        <v>-1.2176935200000005</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="4"/>
-        <v>-5.1648904333200036</v>
-      </c>
-      <c r="H51" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.8081244703200028</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>26.135109566679997</v>
-      </c>
-      <c r="J51" s="6">
-        <f t="shared" si="1"/>
-        <v>22.391875529679997</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="8"/>
-        <v>-3.0648904333200022</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="5"/>
         <v>9.3935533682564714</v>
       </c>
-      <c r="M51" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.7081244703200014</v>
-      </c>
-      <c r="N51" s="6">
-        <f t="shared" si="7"/>
-        <v>22.166436028025995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52.1</v>
       </c>
@@ -48257,47 +47234,27 @@
         <v>2.66</v>
       </c>
       <c r="E52">
+        <f t="shared" si="1"/>
+        <v>-1.0581129200000015</v>
+      </c>
+      <c r="F52">
+        <f>E52*5.591</f>
+        <v>-5.9159093357200083</v>
+      </c>
+      <c r="G52">
+        <f>A52+F52</f>
+        <v>46.184090664279992</v>
+      </c>
+      <c r="H52">
+        <f>F52-C52</f>
+        <v>-2.3159093357200069</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="2"/>
-        <v>-1.0581129200000015</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="3"/>
-        <v>-1.8724359200000014</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="4"/>
-        <v>-5.9159093357200083</v>
-      </c>
-      <c r="H52" s="6">
-        <f t="shared" si="4"/>
-        <v>-10.468789228720008</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>46.184090664279992</v>
-      </c>
-      <c r="J52" s="6">
-        <f t="shared" si="1"/>
-        <v>38.031210771279994</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="8"/>
-        <v>-2.3159093357200069</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="5"/>
         <v>5.3634360512750838</v>
       </c>
-      <c r="M52" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.8687892287200061</v>
-      </c>
-      <c r="N52" s="6">
-        <f t="shared" si="7"/>
-        <v>47.180265468579975</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>57</v>
       </c>
@@ -48312,47 +47269,27 @@
         <v>2.4</v>
       </c>
       <c r="E53">
+        <f t="shared" si="1"/>
+        <v>-1.2168120000000022</v>
+      </c>
+      <c r="F53">
+        <f>E53*5.591</f>
+        <v>-6.8031958920000131</v>
+      </c>
+      <c r="G53">
+        <f>A53+F53</f>
+        <v>50.196804107999988</v>
+      </c>
+      <c r="H53">
+        <f>F53-C53</f>
+        <v>-2.3031958920000131</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="2"/>
-        <v>-1.2168120000000022</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="3"/>
-        <v>-2.1915120000000008</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="4"/>
-        <v>-6.8031958920000131</v>
-      </c>
-      <c r="H53" s="6">
-        <f t="shared" si="4"/>
-        <v>-12.252743592000005</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="1"/>
-        <v>50.196804107999988</v>
-      </c>
-      <c r="J53" s="6">
-        <f t="shared" si="1"/>
-        <v>40.247256407999998</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="8"/>
-        <v>-2.3031958920000131</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="5"/>
         <v>5.3047113169257356</v>
       </c>
-      <c r="M53" s="6">
-        <f t="shared" si="6"/>
-        <v>-7.7527435920000052</v>
-      </c>
-      <c r="N53" s="6">
-        <f t="shared" si="7"/>
-        <v>60.10503320329714</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52.8</v>
       </c>
@@ -48367,47 +47304,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E54">
+        <f t="shared" si="1"/>
+        <v>-2.592016000000001</v>
+      </c>
+      <c r="F54">
+        <f>E54*5.591</f>
+        <v>-14.491961456000006</v>
+      </c>
+      <c r="G54">
+        <f>A54+F54</f>
+        <v>38.308038543999992</v>
+      </c>
+      <c r="H54">
+        <f>F54-C54</f>
+        <v>4.908038543999993</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="2"/>
-        <v>-2.592016000000001</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="3"/>
-        <v>-3.4283680000000007</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="4"/>
-        <v>-14.491961456000006</v>
-      </c>
-      <c r="H54" s="6">
-        <f t="shared" si="4"/>
-        <v>-19.168005488000006</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="1"/>
-        <v>38.308038543999992</v>
-      </c>
-      <c r="J54" s="6">
-        <f t="shared" si="1"/>
-        <v>14.231994511999993</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="8"/>
-        <v>4.908038543999993</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="5"/>
         <v>24.088842349389569</v>
       </c>
-      <c r="M54" s="6">
-        <f t="shared" si="6"/>
-        <v>0.23199451199999288</v>
-      </c>
-      <c r="N54" s="6">
-        <f t="shared" si="7"/>
-        <v>5.3821453598114841E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>46.6</v>
       </c>
@@ -48422,47 +47339,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E55">
+        <f t="shared" si="1"/>
+        <v>-1.9788359999999994</v>
+      </c>
+      <c r="F55">
+        <f>E55*5.591</f>
+        <v>-11.063672075999996</v>
+      </c>
+      <c r="G55">
+        <f>A55+F55</f>
+        <v>35.536327924000005</v>
+      </c>
+      <c r="H55">
+        <f>F55-C55</f>
+        <v>-2.7636720759999918</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="2"/>
-        <v>-1.9788359999999994</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="3"/>
-        <v>-2.6303039999999998</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="4"/>
-        <v>-11.063672075999996</v>
-      </c>
-      <c r="H55" s="6">
-        <f t="shared" si="4"/>
-        <v>-14.706029663999999</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="1"/>
-        <v>35.536327924000005</v>
-      </c>
-      <c r="J55" s="6">
-        <f t="shared" si="1"/>
-        <v>23.593970335999998</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="8"/>
-        <v>-2.7636720759999918</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="5"/>
         <v>7.6378833436621045</v>
       </c>
-      <c r="M55" s="6">
-        <f t="shared" si="6"/>
-        <v>-6.4060296639999947</v>
-      </c>
-      <c r="N55" s="6">
-        <f t="shared" si="7"/>
-        <v>41.037216056047889</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>38.6</v>
       </c>
@@ -48477,47 +47374,27 @@
         <v>2.66</v>
       </c>
       <c r="E56">
+        <f t="shared" si="1"/>
+        <v>-0.70484492000000065</v>
+      </c>
+      <c r="F56">
+        <f>E56*5.591</f>
+        <v>-3.9407879477200036</v>
+      </c>
+      <c r="G56">
+        <f>A56+F56</f>
+        <v>34.659212052279997</v>
+      </c>
+      <c r="H56">
+        <f>F56-C56</f>
+        <v>1.3592120522800006</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="2"/>
-        <v>-0.70484492000000065</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="3"/>
-        <v>-1.1518329199999999</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="4"/>
-        <v>-3.9407879477200036</v>
-      </c>
-      <c r="H56" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.43989785572</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="1"/>
-        <v>34.659212052279997</v>
-      </c>
-      <c r="J56" s="6">
-        <f t="shared" si="1"/>
-        <v>26.860102144279999</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="8"/>
-        <v>1.3592120522800006</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="5"/>
         <v>1.8474574030632112</v>
       </c>
-      <c r="M56" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.1398978557199957</v>
-      </c>
-      <c r="N56" s="6">
-        <f t="shared" si="7"/>
-        <v>1.2993671214750442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>44.41</v>
       </c>
@@ -48532,47 +47409,27 @@
         <v>2.66</v>
       </c>
       <c r="E57">
+        <f t="shared" si="1"/>
+        <v>-0.73624797000000131</v>
+      </c>
+      <c r="F57">
+        <f>E57*5.591</f>
+        <v>-4.1163624002700079</v>
+      </c>
+      <c r="G57">
+        <f>A57+F57</f>
+        <v>40.29363759972999</v>
+      </c>
+      <c r="H57">
+        <f>F57-C57</f>
+        <v>3.6936375997299873</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="2"/>
-        <v>-0.73624797000000131</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="3"/>
-        <v>-1.3279224000000007</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="4"/>
-        <v>-4.1163624002700079</v>
-      </c>
-      <c r="H57" s="6">
-        <f t="shared" si="4"/>
-        <v>-7.424414138400004</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="1"/>
-        <v>40.29363759972999</v>
-      </c>
-      <c r="J57" s="6">
-        <f t="shared" si="1"/>
-        <v>29.175585861599998</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="8"/>
-        <v>3.6936375997299873</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="5"/>
         <v>13.642958718139102</v>
       </c>
-      <c r="M57" s="6">
-        <f t="shared" si="6"/>
-        <v>0.3855858615999912</v>
-      </c>
-      <c r="N57" s="6">
-        <f t="shared" si="7"/>
-        <v>0.14867645666580756</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>44</v>
       </c>
@@ -48587,47 +47444,27 @@
         <v>2.66</v>
       </c>
       <c r="E58">
+        <f t="shared" si="1"/>
+        <v>-0.72805411999999947</v>
+      </c>
+      <c r="F58">
+        <f>E58*5.591</f>
+        <v>-4.0705505849199968</v>
+      </c>
+      <c r="G58">
+        <f>A58+F58</f>
+        <v>39.929449415080001</v>
+      </c>
+      <c r="H58">
+        <f>F58-C58</f>
+        <v>-4.0705505849199968</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="2"/>
-        <v>-0.72805411999999947</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="3"/>
-        <v>-1.3088541199999995</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="4"/>
-        <v>-4.0705505849199968</v>
-      </c>
-      <c r="H58" s="6">
-        <f t="shared" si="4"/>
-        <v>-7.3178033849199968</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="1"/>
-        <v>39.929449415080001</v>
-      </c>
-      <c r="J58" s="6">
-        <f t="shared" si="1"/>
-        <v>36.682196615080002</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="8"/>
-        <v>-4.0705505849199968</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="5"/>
         <v>16.569382064392528</v>
       </c>
-      <c r="M58" s="6">
-        <f t="shared" si="6"/>
-        <v>-7.3178033849199968</v>
-      </c>
-      <c r="N58" s="6">
-        <f t="shared" si="7"/>
-        <v>53.550246380346564</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>45.2</v>
       </c>
@@ -48642,47 +47479,27 @@
         <v>2.66</v>
       </c>
       <c r="E59">
+        <f t="shared" si="1"/>
+        <v>-0.75459572000000064</v>
+      </c>
+      <c r="F59">
+        <f>E59*5.591</f>
+        <v>-4.2189446705200035</v>
+      </c>
+      <c r="G59">
+        <f>A59+F59</f>
+        <v>40.98105532948</v>
+      </c>
+      <c r="H59">
+        <f>F59-C59</f>
+        <v>4.1810553294800021</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="2"/>
-        <v>-0.75459572000000064</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="3"/>
-        <v>-1.3675077200000003</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="4"/>
-        <v>-4.2189446705200035</v>
-      </c>
-      <c r="H59" s="6">
-        <f t="shared" si="4"/>
-        <v>-7.6457356625200017</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="1"/>
-        <v>40.98105532948</v>
-      </c>
-      <c r="J59" s="6">
-        <f t="shared" si="1"/>
-        <v>29.154264337479994</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="8"/>
-        <v>4.1810553294800021</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="5"/>
         <v>17.481223668173129</v>
       </c>
-      <c r="M59" s="6">
-        <f t="shared" si="6"/>
-        <v>0.75426433748000399</v>
-      </c>
-      <c r="N59" s="6">
-        <f t="shared" si="7"/>
-        <v>0.56891469079414936</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>30.3</v>
       </c>
@@ -48697,47 +47514,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E60">
+        <f t="shared" si="1"/>
+        <v>-1.3569910000000016</v>
+      </c>
+      <c r="F60">
+        <f>E60*5.591</f>
+        <v>-7.586936681000009</v>
+      </c>
+      <c r="G60">
+        <f>A60+F60</f>
+        <v>22.713063318999993</v>
+      </c>
+      <c r="H60">
+        <f>F60-C60</f>
+        <v>-1.4869366810000075</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="2"/>
-        <v>-1.3569910000000016</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="3"/>
-        <v>-1.6324180000000013</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="4"/>
-        <v>-7.586936681000009</v>
-      </c>
-      <c r="H60" s="6">
-        <f t="shared" si="4"/>
-        <v>-9.1268490380000067</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="1"/>
-        <v>22.713063318999993</v>
-      </c>
-      <c r="J60" s="6">
-        <f t="shared" si="1"/>
-        <v>15.073150961999993</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="8"/>
-        <v>-1.4869366810000075</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="5"/>
         <v>2.210980693303318</v>
       </c>
-      <c r="M60" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.0268490380000053</v>
-      </c>
-      <c r="N60" s="6">
-        <f t="shared" si="7"/>
-        <v>9.1618150988415579</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60.2</v>
       </c>
@@ -48752,47 +47549,27 @@
         <v>2.4</v>
       </c>
       <c r="E61">
+        <f t="shared" si="1"/>
+        <v>-1.5059640000000032</v>
+      </c>
+      <c r="F61">
+        <f>E61*5.591</f>
+        <v>-8.4198447240000185</v>
+      </c>
+      <c r="G61">
+        <f>A61+F61</f>
+        <v>51.780155275999988</v>
+      </c>
+      <c r="H61">
+        <f>F61-C61</f>
+        <v>5.7801552759999844</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="2"/>
-        <v>-1.5059640000000032</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="3"/>
-        <v>-2.5931760000000024</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="4"/>
-        <v>-8.4198447240000185</v>
-      </c>
-      <c r="H61" s="6">
-        <f t="shared" si="4"/>
-        <v>-14.498447016000014</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="1"/>
-        <v>51.780155275999988</v>
-      </c>
-      <c r="J61" s="6">
-        <f t="shared" si="1"/>
-        <v>31.501552983999986</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="8"/>
-        <v>5.7801552759999844</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="5"/>
         <v>33.410195014670457</v>
       </c>
-      <c r="M61" s="6">
-        <f t="shared" si="6"/>
-        <v>-0.29844701600001144</v>
-      </c>
-      <c r="N61" s="6">
-        <f t="shared" si="7"/>
-        <v>8.9070621359311083E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>41.3</v>
       </c>
@@ -48807,47 +47584,27 @@
         <v>2.66</v>
       </c>
       <c r="E62">
+        <f t="shared" si="1"/>
+        <v>-0.69676652000000017</v>
+      </c>
+      <c r="F62">
+        <f>E62*5.591</f>
+        <v>-3.8956216133200012</v>
+      </c>
+      <c r="G62">
+        <f>A62+F62</f>
+        <v>37.404378386679994</v>
+      </c>
+      <c r="H62">
+        <f>F62-C62</f>
+        <v>3.8043783866799945</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="2"/>
-        <v>-0.69676652000000017</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="3"/>
-        <v>-1.2084735200000005</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="4"/>
-        <v>-3.8956216133200012</v>
-      </c>
-      <c r="H62" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.7565754503200033</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="1"/>
-        <v>37.404378386679994</v>
-      </c>
-      <c r="J62" s="6">
-        <f t="shared" si="1"/>
-        <v>26.843424549679998</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="8"/>
-        <v>3.8043783866799945</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="5"/>
         <v>14.473294909037877</v>
       </c>
-      <c r="M62" s="6">
-        <f t="shared" si="6"/>
-        <v>0.94342454967999245</v>
-      </c>
-      <c r="N62" s="6">
-        <f t="shared" si="7"/>
-        <v>0.89004988093889659</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60.8</v>
       </c>
@@ -48862,47 +47619,27 @@
         <v>2.4</v>
       </c>
       <c r="E63">
+        <f t="shared" si="1"/>
+        <v>-1.5663360000000015</v>
+      </c>
+      <c r="F63">
+        <f>E63*5.591</f>
+        <v>-8.7573845760000086</v>
+      </c>
+      <c r="G63">
+        <f>A63+F63</f>
+        <v>52.04261542399999</v>
+      </c>
+      <c r="H63">
+        <f>F63-C63</f>
+        <v>5.7426154239999914</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="2"/>
-        <v>-1.5663360000000015</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="3"/>
-        <v>-2.6753280000000004</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="4"/>
-        <v>-8.7573845760000086</v>
-      </c>
-      <c r="H63" s="6">
-        <f t="shared" si="4"/>
-        <v>-14.957758848000003</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="1"/>
-        <v>52.04261542399999</v>
-      </c>
-      <c r="J63" s="6">
-        <f t="shared" si="1"/>
-        <v>31.342241151999993</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="8"/>
-        <v>5.7426154239999914</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="5"/>
         <v>32.977631907962603</v>
       </c>
-      <c r="M63" s="6">
-        <f t="shared" si="6"/>
-        <v>-0.45775884800000277</v>
-      </c>
-      <c r="N63" s="6">
-        <f t="shared" si="7"/>
-        <v>0.20954316292228964</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>31.9</v>
       </c>
@@ -48917,47 +47654,27 @@
         <v>2.66</v>
       </c>
       <c r="E64">
+        <f t="shared" si="1"/>
+        <v>-0.89493732000000081</v>
+      </c>
+      <c r="F64">
+        <f>E64*5.591</f>
+        <v>-5.0035945561200048</v>
+      </c>
+      <c r="G64">
+        <f>A64+F64</f>
+        <v>26.896405443879992</v>
+      </c>
+      <c r="H64">
+        <f>F64-C64</f>
+        <v>-1.1035945561200062</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="2"/>
-        <v>-0.89493732000000081</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="3"/>
-        <v>-1.2002203200000006</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="4"/>
-        <v>-5.0035945561200048</v>
-      </c>
-      <c r="H64" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.7104318091200037</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="1"/>
-        <v>26.896405443879992</v>
-      </c>
-      <c r="J64" s="6">
-        <f t="shared" si="1"/>
-        <v>21.289568190879997</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="8"/>
-        <v>-1.1035945561200062</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="5"/>
         <v>1.2179209442977137</v>
       </c>
-      <c r="M64" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.8104318091200051</v>
-      </c>
-      <c r="N64" s="6">
-        <f t="shared" si="7"/>
-        <v>7.898526953713545</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>50.3</v>
       </c>
@@ -48972,47 +47689,27 @@
         <v>2.66</v>
       </c>
       <c r="E65">
+        <f t="shared" si="1"/>
+        <v>-0.95414852000000128</v>
+      </c>
+      <c r="F65">
+        <f>E65*5.591</f>
+        <v>-5.334644375320007</v>
+      </c>
+      <c r="G65">
+        <f>A65+F65</f>
+        <v>44.965355624679987</v>
+      </c>
+      <c r="H65">
+        <f>F65-C65</f>
+        <v>-3.9346443753200084</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="2"/>
-        <v>-0.95414852000000128</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="3"/>
-        <v>-1.713175520000001</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="4"/>
-        <v>-5.334644375320007</v>
-      </c>
-      <c r="H65" s="6">
-        <f t="shared" si="4"/>
-        <v>-9.5783643323200049</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="1"/>
-        <v>44.965355624679987</v>
-      </c>
-      <c r="J65" s="6">
-        <f t="shared" si="1"/>
-        <v>39.321635667679992</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="8"/>
-        <v>-3.9346443753200084</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="5"/>
         <v>15.48142636023738</v>
       </c>
-      <c r="M65" s="6">
-        <f t="shared" si="6"/>
-        <v>-8.1783643323200064</v>
-      </c>
-      <c r="N65" s="6">
-        <f t="shared" si="7"/>
-        <v>66.885643152164064</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>34.700000000000003</v>
       </c>
@@ -49020,54 +47717,34 @@
         <v>29.6</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C75" si="9">B66-A66</f>
+        <f t="shared" ref="C66:C75" si="3">B66-A66</f>
         <v>-5.1000000000000014</v>
       </c>
       <c r="D66">
         <v>2.66</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.78601171999999986</v>
       </c>
       <c r="F66">
-        <f t="shared" si="3"/>
-        <v>-1.1472387199999998</v>
+        <f>E66*5.591</f>
+        <v>-4.3945915265199993</v>
       </c>
       <c r="G66">
-        <f t="shared" si="4"/>
-        <v>-4.3945915265199993</v>
-      </c>
-      <c r="H66" s="6">
-        <f t="shared" si="4"/>
-        <v>-6.4142116835199996</v>
+        <f>A66+F66</f>
+        <v>30.305408473480004</v>
+      </c>
+      <c r="H66">
+        <f>F66-C66</f>
+        <v>0.70540847348000213</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:J75" si="10">A66+G66</f>
-        <v>30.305408473480004</v>
-      </c>
-      <c r="J66" s="6">
-        <f t="shared" si="10"/>
-        <v>23.18578831648</v>
-      </c>
-      <c r="K66">
-        <f t="shared" ref="K66:K75" si="11">G66-C66</f>
-        <v>0.70540847348000213</v>
-      </c>
-      <c r="L66">
-        <f t="shared" ref="L66:L75" si="12">K66*K66</f>
+        <f t="shared" ref="I66:I75" si="4">H66*H66</f>
         <v>0.49760111445738686</v>
       </c>
-      <c r="M66" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.3142116835199982</v>
-      </c>
-      <c r="N66" s="6">
-        <f t="shared" ref="N66:N75" si="13">M66*M66</f>
-        <v>1.7271523491004679</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>50.63</v>
       </c>
@@ -49075,54 +47752,34 @@
         <v>43.75</v>
       </c>
       <c r="C67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>-6.8800000000000026</v>
       </c>
       <c r="D67">
         <v>4</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E74" si="14">-7.7328+1.1872*D67+0.294*A67-0.0777*(D67*D67)-0.0027*(A67*A67)-0.0283*(A67*D67)</f>
+        <f t="shared" ref="E67:E74" si="5">-7.7328+1.1872*D67+0.294*A67-0.0777*(D67*D67)-0.0027*(A67*A67)-0.0283*(A67*D67)</f>
         <v>-1.9944676299999999</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F75" si="15">-7.7328+1.1872*D67+0.294*A67-0.0777*(D67*D67)-0.003*(A67*A67)-0.0283*(A67*D67)</f>
-        <v>-2.7634866999999996</v>
+        <f>E67*5.591</f>
+        <v>-11.15106851933</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:H75" si="16">E67*5.591</f>
-        <v>-11.15106851933</v>
-      </c>
-      <c r="H67" s="6">
-        <f t="shared" si="16"/>
-        <v>-15.450654139699999</v>
+        <f>A67+F67</f>
+        <v>39.478931480669999</v>
+      </c>
+      <c r="H67">
+        <f>F67-C67</f>
+        <v>-4.2710685193299973</v>
       </c>
       <c r="I67">
-        <f t="shared" si="10"/>
-        <v>39.478931480669999</v>
-      </c>
-      <c r="J67" s="6">
-        <f t="shared" si="10"/>
-        <v>28.299345860300001</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="11"/>
-        <v>-4.2710685193299973</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>18.242026296811737</v>
       </c>
-      <c r="M67" s="6">
-        <f t="shared" ref="M67:M75" si="17">H67-C67</f>
-        <v>-8.5706541396999967</v>
-      </c>
-      <c r="N67" s="6">
-        <f t="shared" si="13"/>
-        <v>73.456112382356693</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>43.4</v>
       </c>
@@ -49130,54 +47787,34 @@
         <v>27.8</v>
       </c>
       <c r="C68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>-15.599999999999998</v>
       </c>
       <c r="D68">
         <v>4.4000000000000004</v>
       </c>
       <c r="E68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>-1.7435720000000012</v>
       </c>
       <c r="F68">
-        <f t="shared" si="15"/>
-        <v>-2.3086400000000014</v>
+        <f>E68*5.591</f>
+        <v>-9.7483110520000071</v>
       </c>
       <c r="G68">
-        <f t="shared" si="16"/>
-        <v>-9.7483110520000071</v>
-      </c>
-      <c r="H68" s="6">
-        <f t="shared" si="16"/>
-        <v>-12.907606240000009</v>
+        <f>A68+F68</f>
+        <v>33.651688947999993</v>
+      </c>
+      <c r="H68">
+        <f>F68-C68</f>
+        <v>5.8516889479999907</v>
       </c>
       <c r="I68">
-        <f t="shared" si="10"/>
-        <v>33.651688947999993</v>
-      </c>
-      <c r="J68" s="6">
-        <f t="shared" si="10"/>
-        <v>14.892393759999992</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="11"/>
-        <v>5.8516889479999907</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>34.242263544145239</v>
       </c>
-      <c r="M68" s="6">
-        <f t="shared" si="17"/>
-        <v>2.6923937599999892</v>
-      </c>
-      <c r="N68" s="6">
-        <f t="shared" si="13"/>
-        <v>7.2489841588868797</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>38.729999999999997</v>
       </c>
@@ -49185,54 +47822,34 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>-6.43</v>
       </c>
       <c r="D69">
         <v>2.19</v>
       </c>
       <c r="E69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>-0.56927301000000119</v>
       </c>
       <c r="F69">
-        <f t="shared" si="15"/>
-        <v>-1.0192768800000009</v>
+        <f>E69*5.591</f>
+        <v>-3.1828053989100069</v>
       </c>
       <c r="G69">
-        <f t="shared" si="16"/>
-        <v>-3.1828053989100069</v>
-      </c>
-      <c r="H69" s="6">
-        <f t="shared" si="16"/>
-        <v>-5.6987770360800054</v>
+        <f>A69+F69</f>
+        <v>35.547194601089991</v>
+      </c>
+      <c r="H69">
+        <f>F69-C69</f>
+        <v>3.2471946010899928</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
-        <v>35.547194601089991</v>
-      </c>
-      <c r="J69" s="6">
-        <f t="shared" si="10"/>
-        <v>26.601222963919991</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="11"/>
-        <v>3.2471946010899928</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>10.544272777347997</v>
       </c>
-      <c r="M69" s="6">
-        <f t="shared" si="17"/>
-        <v>0.73122296391999431</v>
-      </c>
-      <c r="N69" s="6">
-        <f t="shared" si="13"/>
-        <v>0.53468702296394133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>31.9</v>
       </c>
@@ -49240,54 +47857,34 @@
         <v>22.9</v>
       </c>
       <c r="C70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="D70">
         <v>4.4000000000000004</v>
       </c>
       <c r="E70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>-1.3545270000000009</v>
       </c>
       <c r="F70">
-        <f t="shared" si="15"/>
-        <v>-1.6598100000000007</v>
+        <f>E70*5.591</f>
+        <v>-7.5731604570000055</v>
       </c>
       <c r="G70">
-        <f t="shared" si="16"/>
-        <v>-7.5731604570000055</v>
-      </c>
-      <c r="H70" s="6">
-        <f t="shared" si="16"/>
-        <v>-9.2799977100000035</v>
+        <f>A70+F70</f>
+        <v>24.326839542999991</v>
+      </c>
+      <c r="H70">
+        <f>F70-C70</f>
+        <v>1.4268395429999945</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
-        <v>24.326839542999991</v>
-      </c>
-      <c r="J70" s="6">
-        <f t="shared" si="10"/>
-        <v>13.620002289999995</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="11"/>
-        <v>1.4268395429999945</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2.0358710814684331</v>
       </c>
-      <c r="M70" s="6">
-        <f t="shared" si="17"/>
-        <v>-0.27999771000000351</v>
-      </c>
-      <c r="N70" s="6">
-        <f t="shared" si="13"/>
-        <v>7.8398717605246068E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>55.6</v>
       </c>
@@ -49295,54 +47892,34 @@
         <v>40.5</v>
       </c>
       <c r="C71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>-15.100000000000001</v>
       </c>
       <c r="D71">
         <v>2.66</v>
       </c>
       <c r="E71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>-1.3103509200000021</v>
       </c>
       <c r="F71">
-        <f t="shared" si="15"/>
-        <v>-2.2377589200000019</v>
+        <f>E71*5.591</f>
+        <v>-7.3261719937200116</v>
       </c>
       <c r="G71">
-        <f t="shared" si="16"/>
-        <v>-7.3261719937200116</v>
-      </c>
-      <c r="H71" s="6">
-        <f t="shared" si="16"/>
-        <v>-12.511310121720012</v>
+        <f>A71+F71</f>
+        <v>48.273828006279992</v>
+      </c>
+      <c r="H71">
+        <f>F71-C71</f>
+        <v>7.7738280062799898</v>
       </c>
       <c r="I71">
-        <f t="shared" si="10"/>
-        <v>48.273828006279992</v>
-      </c>
-      <c r="J71" s="6">
-        <f t="shared" si="10"/>
-        <v>27.988689878279988</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="11"/>
-        <v>7.7738280062799898</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>60.432401871223121</v>
       </c>
-      <c r="M71" s="6">
-        <f t="shared" si="17"/>
-        <v>2.5886898782799896</v>
-      </c>
-      <c r="N71" s="6">
-        <f t="shared" si="13"/>
-        <v>6.7013152859092679</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>62.8</v>
       </c>
@@ -49350,54 +47927,34 @@
         <v>33.5</v>
       </c>
       <c r="C72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>-29.299999999999997</v>
       </c>
       <c r="D72">
         <v>4.4000000000000004</v>
       </c>
       <c r="E72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>-4.018416000000002</v>
       </c>
       <c r="F72">
-        <f t="shared" si="15"/>
-        <v>-5.2015680000000017</v>
+        <f>E72*5.591</f>
+        <v>-22.46696385600001</v>
       </c>
       <c r="G72">
-        <f t="shared" si="16"/>
-        <v>-22.46696385600001</v>
-      </c>
-      <c r="H72" s="6">
-        <f t="shared" si="16"/>
-        <v>-29.081966688000012</v>
+        <f>A72+F72</f>
+        <v>40.33303614399999</v>
+      </c>
+      <c r="H72">
+        <f>F72-C72</f>
+        <v>6.8330361439999869</v>
       </c>
       <c r="I72">
-        <f t="shared" si="10"/>
-        <v>40.33303614399999</v>
-      </c>
-      <c r="J72" s="6">
-        <f t="shared" si="10"/>
-        <v>4.4180333119999879</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="11"/>
-        <v>6.8330361439999869</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>46.69038294521021</v>
       </c>
-      <c r="M72" s="6">
-        <f t="shared" si="17"/>
-        <v>0.2180333119999851</v>
-      </c>
-      <c r="N72" s="6">
-        <f t="shared" si="13"/>
-        <v>4.7538525141682844E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>27.9</v>
       </c>
@@ -49405,54 +47962,34 @@
         <v>19.100000000000001</v>
       </c>
       <c r="C73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>-8.7999999999999972</v>
       </c>
       <c r="D73">
         <v>4.4000000000000004</v>
       </c>
       <c r="E73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>-1.3866070000000015</v>
       </c>
       <c r="F73">
-        <f t="shared" si="15"/>
-        <v>-1.6201300000000014</v>
+        <f>E73*5.591</f>
+        <v>-7.752519737000009</v>
       </c>
       <c r="G73">
-        <f t="shared" si="16"/>
-        <v>-7.752519737000009</v>
-      </c>
-      <c r="H73" s="6">
-        <f t="shared" si="16"/>
-        <v>-9.058146830000009</v>
+        <f>A73+F73</f>
+        <v>20.147480262999991</v>
+      </c>
+      <c r="H73">
+        <f>F73-C73</f>
+        <v>1.0474802629999882</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
-        <v>20.147480262999991</v>
-      </c>
-      <c r="J73" s="6">
-        <f t="shared" si="10"/>
-        <v>10.041853169999992</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="11"/>
-        <v>1.0474802629999882</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.0972149013745245</v>
       </c>
-      <c r="M73" s="6">
-        <f t="shared" si="17"/>
-        <v>-0.25814683000001182</v>
-      </c>
-      <c r="N73" s="6">
-        <f t="shared" si="13"/>
-        <v>6.6639785839054999E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>49</v>
       </c>
@@ -49460,54 +47997,34 @@
         <v>46.1</v>
       </c>
       <c r="C74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>-2.8999999999999986</v>
       </c>
       <c r="D74">
         <v>4.4000000000000004</v>
       </c>
       <c r="E74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>-2.1915720000000016</v>
       </c>
       <c r="F74">
-        <f t="shared" si="15"/>
-        <v>-2.9118720000000016</v>
+        <f>E74*5.591</f>
+        <v>-12.253079052000009</v>
       </c>
       <c r="G74">
-        <f t="shared" si="16"/>
-        <v>-12.253079052000009</v>
-      </c>
-      <c r="H74" s="6">
-        <f t="shared" si="16"/>
-        <v>-16.280276352000008</v>
+        <f>A74+F74</f>
+        <v>36.746920947999989</v>
+      </c>
+      <c r="H74">
+        <f>F74-C74</f>
+        <v>-9.3530790520000107</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
-        <v>36.746920947999989</v>
-      </c>
-      <c r="J74" s="6">
-        <f t="shared" si="10"/>
-        <v>29.819723647999993</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="11"/>
-        <v>-9.3530790520000107</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>87.480087752961424</v>
       </c>
-      <c r="M74" s="6">
-        <f t="shared" si="17"/>
-        <v>-13.38027635200001</v>
-      </c>
-      <c r="N74" s="6">
-        <f t="shared" si="13"/>
-        <v>179.0317952558907</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>53.06</v>
       </c>
@@ -49515,7 +48032,7 @@
         <v>30.88</v>
       </c>
       <c r="C75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>-22.180000000000003</v>
       </c>
       <c r="D75">
@@ -49526,117 +48043,71 @@
         <v>-1.1207145200000013</v>
       </c>
       <c r="F75">
-        <f t="shared" si="15"/>
-        <v>-1.9653236000000009</v>
+        <f>E75*5.591</f>
+        <v>-6.2659148813200076</v>
       </c>
       <c r="G75">
-        <f t="shared" si="16"/>
-        <v>-6.2659148813200076</v>
-      </c>
-      <c r="H75" s="6">
-        <f t="shared" si="16"/>
-        <v>-10.988124247600005</v>
+        <f>A75+F75</f>
+        <v>46.794085118679995</v>
+      </c>
+      <c r="H75">
+        <f>F75-C75</f>
+        <v>15.914085118679996</v>
       </c>
       <c r="I75">
-        <f t="shared" si="10"/>
-        <v>46.794085118679995</v>
-      </c>
-      <c r="J75" s="6">
-        <f t="shared" si="10"/>
-        <v>19.891875752399994</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="11"/>
-        <v>15.914085118679996</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>253.25810516459208</v>
       </c>
-      <c r="M75" s="6">
-        <f t="shared" si="17"/>
-        <v>11.191875752399998</v>
-      </c>
-      <c r="N75" s="6">
-        <f t="shared" si="13"/>
-        <v>125.25808285715902</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L78">
-        <f>SUM(L2:L75)</f>
+      <c r="I78">
+        <f>SUM(I2:I75)</f>
         <v>1080.8108414438414</v>
       </c>
-      <c r="M78" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N78" s="6">
-        <f>SUM(N2:N75)</f>
-        <v>1897.1846955132823</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <f>AVERAGE(A2:A75)</f>
         <v>46.84</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:E79" si="18">AVERAGE(B2:B75)</f>
+        <f t="shared" ref="B79:E79" si="6">AVERAGE(B2:B75)</f>
         <v>38.617297297297299</v>
       </c>
       <c r="D79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>3.2625675675675678</v>
       </c>
       <c r="E79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>-1.43414448837838</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="19">AVERAGE(F2:F75)</f>
-        <v>-2.1172994532432434</v>
+        <f>AVERAGE(F2:F75)</f>
+        <v>-8.018301834523518</v>
       </c>
       <c r="G79">
         <f>AVERAGE(G2:G75)</f>
-        <v>-8.018301834523518</v>
-      </c>
-      <c r="H79">
-        <f>AVERAGE(H2:H75)</f>
-        <v>-11.837821243082979</v>
+        <v>38.821698165476469</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I79">
-        <f>AVERAGE(I2:I75)</f>
-        <v>38.821698165476469</v>
-      </c>
-      <c r="J79">
-        <f>AVERAGE(J2:J75)</f>
-        <v>26.779476054214332</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L79">
-        <f>COUNT(L2:L75)</f>
+        <f>COUNT(I2:I75)</f>
         <v>74</v>
       </c>
-      <c r="M79" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N79" s="6">
-        <f>COUNT(N2:N75)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <f>STDEV(A2:A75)</f>
         <v>9.1835347001598784</v>
@@ -49645,35 +48116,21 @@
         <f>STDEV(D2:D75)</f>
         <v>0.88128495976250232</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L80">
-        <f>L78/(L79-2)</f>
+      <c r="I80">
+        <f>I78/(I79-2)</f>
         <v>15.011261686720019</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N80" s="6">
-        <f>N78/(N79-2)</f>
-        <v>26.349787437684476</v>
-      </c>
-    </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K81" s="1" t="s">
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L81">
-        <f>SQRT(L80)</f>
+      <c r="I81">
+        <f>SQRT(I80)</f>
         <v>3.8744369509284855</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="6">
-        <f>SQRT(N80)</f>
-        <v>5.1332044024843269</v>
       </c>
     </row>
   </sheetData>
@@ -49684,7 +48141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr published="0"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
